--- a/diploma/data/infrastructure.xlsx
+++ b/diploma/data/infrastructure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t xml:space="preserve">JK_name</t>
   </si>
@@ -81,6 +81,18 @@
   </si>
   <si>
     <t xml:space="preserve">Ostrov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Школа № 2030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метро Терехово</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Москорецкий дендропарк</t>
+  </si>
+  <si>
+    <t xml:space="preserve">park</t>
   </si>
 </sst>
 </file>
@@ -184,10 +196,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -380,6 +392,61 @@
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>55.750473</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>37.456081</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>55.748097</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>37.45963</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="35.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>55.75626</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>37.464408</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/diploma/data/infrastructure.xlsx
+++ b/diploma/data/infrastructure.xlsx
@@ -77,22 +77,22 @@
     <t xml:space="preserve">Динамо</t>
   </si>
   <si>
+    <t xml:space="preserve">Ostrov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Школа № 2030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метро Терехово</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Москорецкий дендропарк</t>
+  </si>
+  <si>
+    <t xml:space="preserve">park</t>
+  </si>
+  <si>
     <t xml:space="preserve">Moskvorechie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ostrov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Школа № 2030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Метро Терехово</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Москорецкий дендропарк</t>
-  </si>
-  <si>
-    <t xml:space="preserve">park</t>
   </si>
 </sst>
 </file>
@@ -199,7 +199,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -388,65 +388,65 @@
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>55.750473</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>37.456081</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>55.750473</v>
+        <v>55.748097</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>37.456081</v>
+        <v>37.45963</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="35.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>55.748097</v>
+        <v>55.75626</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>37.45963</v>
+        <v>37.464408</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="35.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>55.75626</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>37.464408</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/diploma/data/infrastructure.xlsx
+++ b/diploma/data/infrastructure.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">latitude</t>
   </si>
   <si>
-    <t xml:space="preserve">longtitude</t>
+    <t xml:space="preserve">longitude</t>
   </si>
   <si>
     <t xml:space="preserve">distance m</t>
@@ -198,8 +198,8 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18:I18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/diploma/data/infrastructure.xlsx
+++ b/diploma/data/infrastructure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
   <si>
     <t xml:space="preserve">JK_name</t>
   </si>
@@ -40,13 +40,31 @@
     <t xml:space="preserve">distance m</t>
   </si>
   <si>
+    <t xml:space="preserve">Ostrov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Школа № 2030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метро Терехово</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Москорецкий дендропарк</t>
+  </si>
+  <si>
+    <t xml:space="preserve">park</t>
+  </si>
+  <si>
     <t xml:space="preserve">Prime Park</t>
   </si>
   <si>
     <t xml:space="preserve">Школа № 152, корпус № 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">school</t>
   </si>
   <si>
     <t xml:space="preserve">Школа № 1409, корпус № 2</t>
@@ -68,28 +86,10 @@
     <t xml:space="preserve">Аэропорт</t>
   </si>
   <si>
-    <t xml:space="preserve">metro</t>
-  </si>
-  <si>
     <t xml:space="preserve">Петровский парк</t>
   </si>
   <si>
     <t xml:space="preserve">Динамо</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ostrov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Школа № 2030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Метро Терехово</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Москорецкий дендропарк</t>
-  </si>
-  <si>
-    <t xml:space="preserve">park</t>
   </si>
   <si>
     <t xml:space="preserve">Moskvorechie</t>
@@ -196,10 +196,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -224,61 +224,61 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="35.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>55.795933</v>
+        <v>55.750473</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>37.545062</v>
+        <v>37.456081</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="35.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>55.788385</v>
+        <v>55.748097</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>37.544196</v>
+        <v>37.45963</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="46.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="35.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>55.800754</v>
+        <v>55.75626</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>37.535178</v>
+        <v>37.464408</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>1000</v>
@@ -286,159 +286,159 @@
     </row>
     <row r="5" customFormat="false" ht="35.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>8</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>55.797962</v>
+        <v>55.795933</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>37.545007</v>
+        <v>37.545062</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>55.798153</v>
+        <v>55.788385</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>37.554658</v>
+        <v>37.544196</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="46.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>55.799998</v>
+        <v>55.800754</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>37.534417</v>
+        <v>37.535178</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1000</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="35.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>55.79069</v>
+        <v>55.797962</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>37.555995</v>
+        <v>37.545007</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="35.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>55.790512</v>
+        <v>55.798153</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>37.556458</v>
+        <v>37.554658</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>55.750473</v>
+        <v>55.799998</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>37.456081</v>
+        <v>37.534417</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>55.748097</v>
+        <v>55.79069</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>37.45963</v>
+        <v>37.555995</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="35.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D12" s="0" t="n">
-        <v>55.75626</v>
+        <v>55.790512</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>37.464408</v>
+        <v>37.556458</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>1000</v>
@@ -446,6 +446,66 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>55.750473</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>37.456081</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>55.748097</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>37.45963</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="35.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>55.75626</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>37.464408</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
     </row>

--- a/diploma/data/infrastructure.xlsx
+++ b/diploma/data/infrastructure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t xml:space="preserve">JK_name</t>
   </si>
@@ -199,7 +199,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:F4"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -445,64 +445,14 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>55.750473</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>37.456081</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>300</v>
-      </c>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>55.748097</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>37.45963</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="35.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>55.75626</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>37.464408</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>1000</v>
-      </c>
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">

--- a/diploma/data/infrastructure.xlsx
+++ b/diploma/data/infrastructure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
   <si>
     <t xml:space="preserve">JK_name</t>
   </si>
@@ -93,6 +93,27 @@
   </si>
   <si>
     <t xml:space="preserve">Moskvorechie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Школа № 1579, учебный корпус № 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Университетский лицей № 1511 предуниверситария НИЯУ МИФИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Школа № 526, дошкольное отделение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Школа № 2000, здание № 8, дошкольный корпус Акварельный городок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Школа № 1579, здание № 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Долина реки Чертановки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метро Каширская</t>
   </si>
 </sst>
 </file>
@@ -102,11 +123,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -122,6 +144,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -166,7 +193,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -177,6 +204,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -196,31 +227,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -228,19 +259,19 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>55.750473</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>37.456081</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>300</v>
       </c>
     </row>
@@ -248,19 +279,19 @@
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>55.748097</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>37.45963</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>700</v>
       </c>
     </row>
@@ -271,16 +302,16 @@
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>55.75626</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>37.464408</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -291,16 +322,16 @@
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>55.795933</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>37.545062</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>300</v>
       </c>
     </row>
@@ -314,13 +345,13 @@
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>55.788385</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>37.544196</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>400</v>
       </c>
     </row>
@@ -334,13 +365,13 @@
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>55.800754</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>37.535178</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -354,13 +385,13 @@
       <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>55.797962</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>37.545007</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <v>650</v>
       </c>
     </row>
@@ -374,13 +405,13 @@
       <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>55.798153</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>37.554658</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <v>900</v>
       </c>
     </row>
@@ -394,13 +425,13 @@
       <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>55.799998</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>37.534417</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -414,13 +445,13 @@
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>55.79069</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <v>37.555995</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <v>950</v>
       </c>
     </row>
@@ -434,29 +465,151 @@
       <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>55.790512</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="1" t="n">
         <v>37.556458</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
+    <row r="13" customFormat="false" ht="46.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>55.650791</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>37.631992</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="80.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>55.648227</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>37.652303</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="46.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>55.647331</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>37.651988</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>750</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>55.643235</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>37.65176</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>55.651474</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>37.630719</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>55.6418</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>37.651047</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>55.654403</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>37.647813</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>1100</v>
       </c>
     </row>
   </sheetData>

--- a/diploma/data/infrastructure.xlsx
+++ b/diploma/data/infrastructure.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
   <si>
-    <t xml:space="preserve">JK_name</t>
+    <t xml:space="preserve">jk_name</t>
   </si>
   <si>
     <t xml:space="preserve">name</t>
@@ -230,7 +230,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/diploma/data/infrastructure.xlsx
+++ b/diploma/data/infrastructure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
   <si>
     <t xml:space="preserve">jk_name</t>
   </si>
@@ -229,8 +229,8 @@
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -596,6 +596,9 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B19" s="0" t="s">
         <v>30</v>
       </c>

--- a/diploma/data/infrastructure.xlsx
+++ b/diploma/data/infrastructure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
   <si>
     <t xml:space="preserve">jk_name</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t xml:space="preserve">Метро Каширская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rustaveli14</t>
   </si>
 </sst>
 </file>
@@ -123,7 +126,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -144,11 +147,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -193,7 +191,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -204,10 +202,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -227,13 +221,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -482,16 +476,16 @@
       <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>55.650791</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="1" t="n">
         <v>37.631992</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="1" t="n">
         <v>850</v>
       </c>
     </row>
@@ -502,16 +496,16 @@
       <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <v>55.648227</v>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" s="1" t="n">
         <v>37.652303</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="1" t="n">
         <v>750</v>
       </c>
     </row>
@@ -522,16 +516,16 @@
       <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <v>55.647331</v>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="E15" s="1" t="n">
         <v>37.651988</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="1" t="n">
         <v>750</v>
       </c>
     </row>
@@ -539,19 +533,19 @@
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>55.643235</v>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E16" s="1" t="n">
         <v>37.65176</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="1" t="n">
         <v>700</v>
       </c>
     </row>
@@ -559,19 +553,19 @@
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <v>55.651474</v>
       </c>
-      <c r="E17" s="3" t="n">
+      <c r="E17" s="1" t="n">
         <v>37.630719</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17" s="1" t="n">
         <v>900</v>
       </c>
     </row>
@@ -579,19 +573,19 @@
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <v>55.6418</v>
       </c>
-      <c r="E18" s="3" t="n">
+      <c r="E18" s="1" t="n">
         <v>37.651047</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18" s="1" t="n">
         <v>700</v>
       </c>
     </row>
@@ -599,20 +593,25 @@
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <v>55.654403</v>
       </c>
-      <c r="E19" s="3" t="n">
+      <c r="E19" s="1" t="n">
         <v>37.647813</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="1" t="n">
         <v>1100</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/diploma/data/infrastructure.xlsx
+++ b/diploma/data/infrastructure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
   <si>
     <t xml:space="preserve">jk_name</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t xml:space="preserve">Rustaveli14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метро Бутырская</t>
   </si>
 </sst>
 </file>
@@ -126,7 +129,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -147,6 +150,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -191,7 +199,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -202,6 +210,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -224,10 +236,10 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -610,8 +622,23 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>55.812322</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>37.60368</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
